--- a/docs/ST3/ST3_08.11.2024_output.xlsx
+++ b/docs/ST3/ST3_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731671699.737804</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731671702.7357714</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671699.737804.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671702.7357714.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>7095.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7102.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-7</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731671715.552679</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731671716.1363642</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671715.552679.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671716.1363642.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>7084.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7062</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>22.5</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -643,43 +671,49 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731671716.4622781</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731671716.4622781.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731671716.4622781.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>7075.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>7075.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -687,51 +721,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731671718.1735427</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731671720.8061082</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671718.1735427.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671720.8061082.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>473.65</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>475.05</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-1.400000000000034</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731671725.2984245</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731671727.2501807</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671725.2984245.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671727.2501807.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>473.65</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>474</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.3500000000000227</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731671731.7209785</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731671734.1896439</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671731.7209785.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671734.1896439.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>473.9</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>474.35</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.4500000000000455</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731671737.198045</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731671737.929638</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671737.198045.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671737.929638.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>474.4</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>474.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731671737.945595</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731671738.9759653</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671737.945595.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671738.9759653.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>474.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>475</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731671738.9924297</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731671739.5950434</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671738.9924297.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671739.5950434.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>475</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>475.4</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -999,95 +1069,107 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731671741.471238</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731671741.471238.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731671741.471238.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>476.3</v>
       </c>
-      <c r="J12" t="n">
-        <v>476.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>474.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-1.800000000000011</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731671753.4132469</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731671755.3550377</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671753.4132469.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671755.3550377.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>928.2</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>931</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-2.799999999999955</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731671760.739931</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731671761.16668</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671760.739931.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671761.16668.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>933.6</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>932.8</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.8000000000000682</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731671768.7486155</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731671768.8818972</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671768.7486155.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671768.8818972.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>930.4</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>930</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731671770.464619</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731671771.8529427</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671770.464619.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671771.8529427.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>129.7</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>130.08</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.3800000000000239</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -1251,51 +1351,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731671776.4134617</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731671779.2616723</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671776.4134617.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671779.2616723.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>129.3</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>129.18</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1303,51 +1409,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731671785.6625447</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731671786.3373604</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671785.6625447.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671786.3373604.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>130.18</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>129.76</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.4200000000000159</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -1355,51 +1467,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731671791.4021175</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731671793.1656046</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671791.4021175.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671793.1656046.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>130.14</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>130.18</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.04000000000002046</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1407,51 +1525,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731671797.3308282</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731671799.0011735</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671797.3308282.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671799.0011735.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>37.945</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>37.95</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.005000000000002558</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731671801.372502</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731671802.4569557</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671801.372502.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671802.4569557.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>37.81</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>37.815</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.004999999999995453</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731671803.5430844</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731671804.6913402</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671803.5430844.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671804.6913402.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>37.745</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>37.94</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.1950000000000003</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.52</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731671805.398339</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731671807.657174</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671805.398339.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671807.657174.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>37.905</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>37.89</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.01500000000000057</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731671810.6774004</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731671811.6301668</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671810.6774004.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671811.6301668.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>37.955</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>37.91</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.04500000000000171</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731671814.274807</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731671814.8101742</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671814.274807.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671814.8101742.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>38.03</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>38.12</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.08999999999999631</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731671815.733218</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731671816.9153893</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671815.733218.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671816.9153893.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>38.1</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>38.065</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.03500000000000369</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731671825.377983</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731671826.1076112</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671825.377983.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671826.1076112.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1184.4</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1183.2</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-1.200000000000045</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731671838.3911223</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731671838.7077782</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671838.3911223.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671838.7077782.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1188.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1190.8</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731671839.8890543</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731671842.9054995</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671839.8890543.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671842.9054995.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1190.2</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1188</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-2.200000000000045</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731671848.225691</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731671849.6982133</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731671848.225691.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731671849.6982133.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>78.98</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>79.09999999999999</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.1199999999999903</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1979,51 +2163,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731671852.1159542</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731671856.839477</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731671852.1159542.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731671856.839477.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>78.3</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>78.61</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.3100000000000023</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -2031,51 +2221,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731671866.0359745</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731671868.517296</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731671866.0359745.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731671868.517296.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>78.73</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>78.68000000000001</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2083,51 +2279,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731671870.210482</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731671870.7845168</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671870.210482.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671870.7845168.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>103.62</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>103.27</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.3500000000000085</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2135,51 +2337,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731671871.809535</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731671873.9981854</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671871.809535.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671873.9981854.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>103.49</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>103.09</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.3999999999999915</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -2187,51 +2395,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731671874.5431747</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731671875.8202038</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671874.5431747.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671875.8202038.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>103.16</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>102.67</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.4899999999999949</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -2239,51 +2453,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731671877.7854593</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731671878.3985665</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671877.7854593.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671878.3985665.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>102.46</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>102.65</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.1900000000000119</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -2291,51 +2511,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731671890.6668067</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731671893.6035783</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671890.6668067.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671893.6035783.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>103</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>103.1</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2343,51 +2569,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731671908.9180892</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731671910.8943348</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MXI1731671908.9180892.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MXI1731671910.8943348.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>2744.05</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>2748.6</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-4.549999999999727</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -2395,95 +2627,107 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731671919.904631</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731671919.904631.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731671919.904631.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>2745.15</v>
       </c>
-      <c r="J39" t="n">
-        <v>2745.15</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>2744.45</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7000000000002728</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731671936.2483313</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731671940.3899782</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/APTK1731671936.2483313.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/APTK1731671940.3899782.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>10.844</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>10.842</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.001999999999998892</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2491,51 +2735,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731671942.378235</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731671945.5827932</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731671942.378235.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731671945.5827932.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>481.1</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>482.4</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-1.299999999999955</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -2543,51 +2793,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731671949.1911352</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731671952.8639493</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731671949.1911352.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731671952.8639493.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>480.3</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>482.2</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-1.899999999999977</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -2595,51 +2851,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731671958.7246926</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731671963.2875092</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731671958.7246926.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731671963.2875092.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>486.3</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>485.2</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-1.100000000000023</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -2647,51 +2909,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731671982.9285235</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731671984.1296182</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/TATN1731671982.9285235.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/TATN1731671984.1296182.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>580.2</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>580.5</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.2999999999999545</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2699,51 +2967,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731671985.4746118</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731671986.3601663</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/TATN1731671985.4746118.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/TATN1731671986.3601663.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>580.9</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>583.6</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>2.700000000000045</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -2751,51 +3025,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731671987.3124347</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731671989.9284549</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/TATN1731671987.3124347.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/TATN1731671989.9284549.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>583</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>578</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-5</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.86</v>
       </c>
     </row>
@@ -2879,19 +3159,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.200000000000102</v>
+        <v>-4.000000000000114</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3142857142857289</v>
+        <v>-0.5714285714285877</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.47</v>
+        <v>-0.85</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="4">
@@ -3077,19 +3357,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.549999999999727</v>
+        <v>-3.849999999999454</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.274999999999864</v>
+        <v>-1.924999999999727</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.17</v>
+        <v>-0.14</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.08</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="13">
